--- a/config_2.9/game_enter_btn_config.xlsx
+++ b/config_2.9/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="12" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="358">
   <si>
     <t>id|行号</t>
   </si>
@@ -1340,10 +1340,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Right_shtx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Right_hd</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1361,10 +1357,6 @@
   </si>
   <si>
     <t>深海探险</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>109#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2226,10 +2218,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2240,7 +2232,7 @@
         <v>200</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2248,10 +2240,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -2639,10 +2631,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2674,7 +2666,7 @@
         <v>109</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2728,7 +2720,7 @@
         <v>296</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2738,19 +2730,8 @@
       <c r="B8" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C9" t="s">
-        <v>303</v>
+      <c r="C8" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -3182,7 +3163,7 @@
         <v>147</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3224,7 +3205,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>50</v>
@@ -3238,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3280,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -3420,7 +3401,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -3582,7 +3563,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3762,7 +3743,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -4749,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -5059,7 +5040,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E106">
         <v>105</v>
@@ -5124,7 +5105,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5133,7 +5114,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5141,7 +5122,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5150,7 +5131,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5158,7 +5139,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5167,7 +5148,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5175,7 +5156,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5184,7 +5165,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5192,7 +5173,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5201,7 +5182,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5209,7 +5190,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5218,7 +5199,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5226,19 +5207,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5246,19 +5227,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5266,7 +5247,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5275,7 +5256,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5283,7 +5264,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5292,7 +5273,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5300,7 +5281,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5309,7 +5290,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5317,7 +5298,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5326,7 +5307,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5334,7 +5315,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5343,7 +5324,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5351,7 +5332,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5360,7 +5341,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5368,7 +5349,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5377,7 +5358,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5385,7 +5366,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5394,7 +5375,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -5630,7 +5611,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5734,7 +5715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -5773,7 +5754,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5792,7 +5773,7 @@
         <v>147</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5812,10 +5793,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -5887,10 +5868,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -5906,10 +5887,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>

--- a/config_2.9/game_enter_btn_config.xlsx
+++ b/config_2.9/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="12" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="360">
   <si>
     <t>id|行号</t>
   </si>
@@ -1551,10 +1551,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>123#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>80#122#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1583,8 +1579,18 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3;116#2#8#122#124#61#117#115#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>121#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;116#2#8#122#61#124#117#115#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;446#2#8#422#64#424#447#445#</t>
+  </si>
+  <si>
+    <t>3;6#2#8#22#6#24#7#5#</t>
   </si>
 </sst>
 </file>
@@ -2232,7 +2238,7 @@
         <v>200</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2633,7 +2639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -3139,7 +3145,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3163,7 +3169,7 @@
         <v>147</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3177,10 +3183,10 @@
   <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E62" sqref="E62"/>
+      <selection pane="bottomRight" activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3219,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3401,7 +3407,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -3563,7 +3569,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3743,7 +3749,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -5366,7 +5372,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5375,7 +5381,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -5715,8 +5721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_2.9/game_enter_btn_config.xlsx
+++ b/config_2.9/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="17" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="361">
   <si>
     <t>id|行号</t>
   </si>
@@ -1336,10 +1336,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>69#73#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"act_035_ybwl",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1589,6 +1585,41 @@
   <si>
     <t>11#</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by_hbyts",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼来袭提示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>69#125</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>73#</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2222,10 +2253,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>327</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2236,7 +2267,7 @@
         <v>200</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2244,10 +2275,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -2582,7 +2613,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -2637,8 +2668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2670,7 +2701,7 @@
         <v>109</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2734,8 +2765,8 @@
       <c r="B8" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C8" t="s">
-        <v>295</v>
+      <c r="C8" s="6" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -2913,7 +2944,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2977,7 +3008,7 @@
         <v>229</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3015,7 +3046,7 @@
         <v>230</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -3053,7 +3084,7 @@
         <v>279</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3091,7 +3122,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -3129,7 +3160,7 @@
         <v>154</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -3167,7 +3198,7 @@
         <v>147</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -3178,13 +3209,13 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E89" sqref="E89"/>
+      <selection pane="bottomRight" activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3209,7 +3240,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>50</v>
@@ -3223,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3265,7 +3296,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -3405,7 +3436,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -3567,7 +3598,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3747,7 +3778,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -4734,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -5044,7 +5075,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E106">
         <v>105</v>
@@ -5126,7 +5157,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5135,7 +5166,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5143,7 +5174,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5152,7 +5183,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5160,7 +5191,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5169,7 +5200,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5177,7 +5208,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5186,7 +5217,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5194,7 +5225,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5203,7 +5234,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5211,19 +5242,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5231,19 +5262,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>316</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5251,7 +5282,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5260,7 +5291,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5268,7 +5299,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5277,7 +5308,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5285,7 +5316,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5294,7 +5325,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5302,7 +5333,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5311,7 +5342,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5319,7 +5350,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5328,7 +5359,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5336,7 +5367,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5345,7 +5376,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5353,7 +5384,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5362,7 +5393,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5370,7 +5401,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5379,7 +5410,24 @@
         <v>124</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>125</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -5430,7 +5478,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5505,7 +5553,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5569,7 +5617,7 @@
         <v>234</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -5615,7 +5663,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5758,7 +5806,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5777,7 +5825,7 @@
         <v>147</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5797,10 +5845,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -5872,10 +5920,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -5891,10 +5939,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>

--- a/config_2.9/game_enter_btn_config.xlsx
+++ b/config_2.9/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="358">
   <si>
     <t>id|行号</t>
   </si>
@@ -1551,10 +1551,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>80#122#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_gift","gift_kllb","enter"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1583,14 +1579,12 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3;116#2#8#122#61#124#117#115#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3;446#2#8#422#64#424#447#445#</t>
-  </si>
-  <si>
-    <t>3;6#2#8#22#6#24#7#5#</t>
+    <t>3;116#2#8#122#61#124#9#117#115#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9#80#122#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2172,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2238,7 +2232,7 @@
         <v>200</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3169,7 +3163,7 @@
         <v>147</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -3183,10 +3177,10 @@
   <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E125" sqref="E125"/>
+      <selection pane="bottomRight" activeCell="F81" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3225,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3407,7 +3401,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -3569,7 +3563,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3749,7 +3743,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -5372,7 +5366,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5381,7 +5375,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5721,8 +5715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5760,7 +5754,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>

--- a/config_2.9/game_enter_btn_config.xlsx
+++ b/config_2.9/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="359">
   <si>
     <t>id|行号</t>
   </si>
@@ -1221,30 +1221,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>101#</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;31;101#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>101#</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;31;90;101#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>101#</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>16;101;31;#</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>"vip",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1585,6 +1561,34 @@
   <si>
     <t>9#80#122#</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11#</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31;11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11#</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;31;90;11#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16;11;31;#</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>11#</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>11#</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2166,7 +2170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2218,10 +2222,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2232,7 +2236,7 @@
         <v>200</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2240,10 +2244,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2578,7 +2582,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -2666,7 +2670,7 @@
         <v>109</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2717,10 +2721,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2728,10 +2732,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2798,7 +2802,7 @@
         <v>203</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2909,7 +2913,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>270</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2973,7 +2977,7 @@
         <v>229</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>269</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -2987,7 +2991,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3011,7 +3015,7 @@
         <v>230</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>269</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -3025,7 +3029,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3046,10 +3050,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>269</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -3063,7 +3067,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3087,7 +3091,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>269</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3101,7 +3105,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3125,7 +3129,7 @@
         <v>154</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>269</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3152,7 +3156,7 @@
         <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3163,7 +3167,7 @@
         <v>147</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3176,11 +3180,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F81" sqref="F1:F1048576"/>
+      <selection pane="bottomRight" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3199,13 +3203,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>50</v>
@@ -3219,7 +3223,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3237,7 +3241,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -3261,7 +3265,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -3401,7 +3405,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -3563,7 +3567,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3743,7 +3747,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -4730,7 +4734,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -4983,7 +4987,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C103" s="20">
         <v>1</v>
@@ -4992,7 +4996,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -5000,7 +5004,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -5009,7 +5013,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5017,7 +5021,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C105" s="15">
         <v>1</v>
@@ -5026,7 +5030,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -5034,19 +5038,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -5054,7 +5058,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5063,7 +5067,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -5071,7 +5075,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5080,7 +5084,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5088,7 +5092,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5097,7 +5101,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5105,7 +5109,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5114,7 +5118,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5122,7 +5126,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5131,7 +5135,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5139,7 +5143,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5148,7 +5152,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5156,7 +5160,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5165,7 +5169,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5173,7 +5177,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5182,7 +5186,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5190,7 +5194,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5199,7 +5203,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5207,19 +5211,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5227,19 +5231,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5247,7 +5251,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5256,7 +5260,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5264,7 +5268,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5273,7 +5277,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5281,7 +5285,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5290,7 +5294,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5298,7 +5302,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5307,7 +5311,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5315,7 +5319,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5324,7 +5328,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5332,7 +5336,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5341,7 +5345,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5349,7 +5353,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5358,7 +5362,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5366,7 +5370,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5375,7 +5379,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -5426,7 +5430,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>271</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5501,7 +5505,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>272</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5565,7 +5569,7 @@
         <v>234</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>273</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5611,7 +5615,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5698,10 +5702,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -5715,8 +5719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5754,7 +5758,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5773,7 +5777,7 @@
         <v>147</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5793,10 +5797,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -5868,10 +5872,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -5887,10 +5891,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>
